--- a/results/costAnalysis.xlsx
+++ b/results/costAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\deferred-choice\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{04A75967-4EEE-4C01-83BD-75AA9DE5DE91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E1F9F1B0-6991-4AA8-9D32-160D805F79C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -239,6 +239,12 @@
   </si>
   <si>
     <t>GDCA</t>
+  </si>
+  <si>
+    <t>GRT</t>
+  </si>
+  <si>
+    <t>GRTCA</t>
   </si>
 </sst>
 </file>
@@ -1079,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY131"/>
+  <dimension ref="A1:BA131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+      <selection activeCell="AW13" sqref="AW13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,10 +1100,12 @@
     <col min="25" max="25" width="7.42578125" customWidth="1"/>
     <col min="26" max="26" width="12" customWidth="1"/>
     <col min="27" max="47" width="4" customWidth="1"/>
-    <col min="48" max="51" width="4.140625" customWidth="1"/>
+    <col min="48" max="48" width="9" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9" customWidth="1"/>
+    <col min="50" max="53" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1240,19 +1248,25 @@
         <v>47</v>
       </c>
       <c r="AV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX1" t="s">
         <v>14</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>15</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>16</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1286,7 +1300,7 @@
         <v>7882765</v>
       </c>
       <c r="Z2">
-        <f>Y2/AW2</f>
+        <f>Y2/AY2</f>
         <v>1576553</v>
       </c>
       <c r="AA2">
@@ -1308,10 +1322,12 @@
         <v>107042</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <f>SUM(AA2:AU2)</f>
+        <v>1064185</v>
       </c>
       <c r="AW2">
-        <v>5</v>
+        <f>AV2/AY2</f>
+        <v>212837</v>
       </c>
       <c r="AX2">
         <v>1</v>
@@ -1319,8 +1335,14 @@
       <c r="AY2">
         <v>5</v>
       </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1354,7 +1376,7 @@
         <v>7882765</v>
       </c>
       <c r="Z3">
-        <f>Y3/AW3</f>
+        <f>Y3/AY3</f>
         <v>1576553</v>
       </c>
       <c r="AA3">
@@ -1376,19 +1398,27 @@
         <v>149002</v>
       </c>
       <c r="AV3">
+        <f t="shared" ref="AV3:AV66" si="0">SUM(AA3:AU3)</f>
+        <v>3187835</v>
+      </c>
+      <c r="AW3">
+        <f t="shared" ref="AW3:AW66" si="1">AV3/AY3</f>
+        <v>637567</v>
+      </c>
+      <c r="AX3">
         <v>1</v>
       </c>
-      <c r="AW3">
-        <v>5</v>
-      </c>
-      <c r="AX3">
+      <c r="AY3">
+        <v>5</v>
+      </c>
+      <c r="AZ3">
         <v>10</v>
       </c>
-      <c r="AY3">
+      <c r="BA3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1422,7 +1452,7 @@
         <v>7882445</v>
       </c>
       <c r="Z4">
-        <f>Y4/AW4</f>
+        <f>Y4/AY4</f>
         <v>1576489</v>
       </c>
       <c r="AA4">
@@ -1444,19 +1474,27 @@
         <v>232922</v>
       </c>
       <c r="AV4">
+        <f t="shared" si="0"/>
+        <v>5733935</v>
+      </c>
+      <c r="AW4">
+        <f t="shared" si="1"/>
+        <v>1146787</v>
+      </c>
+      <c r="AX4">
         <v>1</v>
       </c>
-      <c r="AW4">
-        <v>5</v>
-      </c>
-      <c r="AX4">
+      <c r="AY4">
+        <v>5</v>
+      </c>
+      <c r="AZ4">
         <v>20</v>
       </c>
-      <c r="AY4">
+      <c r="BA4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -1490,7 +1528,7 @@
         <v>7882765</v>
       </c>
       <c r="Z5">
-        <f>Y5/AW5</f>
+        <f>Y5/AY5</f>
         <v>1576553</v>
       </c>
       <c r="AA5">
@@ -1512,19 +1550,27 @@
         <v>316842</v>
       </c>
       <c r="AV5">
+        <f t="shared" si="0"/>
+        <v>8280035</v>
+      </c>
+      <c r="AW5">
+        <f t="shared" si="1"/>
+        <v>1656007</v>
+      </c>
+      <c r="AX5">
         <v>1</v>
       </c>
-      <c r="AW5">
-        <v>5</v>
-      </c>
-      <c r="AX5">
+      <c r="AY5">
+        <v>5</v>
+      </c>
+      <c r="AZ5">
         <v>30</v>
       </c>
-      <c r="AY5">
+      <c r="BA5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -1573,7 +1619,7 @@
         <v>15765530</v>
       </c>
       <c r="Z6">
-        <f>Y6/AW6</f>
+        <f>Y6/AY6</f>
         <v>1576553</v>
       </c>
       <c r="AA6">
@@ -1610,19 +1656,27 @@
         <v>107042</v>
       </c>
       <c r="AV6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2128370</v>
       </c>
       <c r="AW6">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>212837</v>
       </c>
       <c r="AX6">
         <v>1</v>
       </c>
       <c r="AY6">
+        <v>10</v>
+      </c>
+      <c r="AZ6">
+        <v>1</v>
+      </c>
+      <c r="BA6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -1671,7 +1725,7 @@
         <v>15765530</v>
       </c>
       <c r="Z7">
-        <f>Y7/AW7</f>
+        <f>Y7/AY7</f>
         <v>1576553</v>
       </c>
       <c r="AA7">
@@ -1708,19 +1762,27 @@
         <v>149002</v>
       </c>
       <c r="AV7">
+        <f t="shared" si="0"/>
+        <v>6375670</v>
+      </c>
+      <c r="AW7">
+        <f t="shared" si="1"/>
+        <v>637567</v>
+      </c>
+      <c r="AX7">
         <v>1</v>
       </c>
-      <c r="AW7">
+      <c r="AY7">
         <v>10</v>
       </c>
-      <c r="AX7">
+      <c r="AZ7">
         <v>10</v>
       </c>
-      <c r="AY7">
+      <c r="BA7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -1769,7 +1831,7 @@
         <v>15764890</v>
       </c>
       <c r="Z8">
-        <f>Y8/AW8</f>
+        <f>Y8/AY8</f>
         <v>1576489</v>
       </c>
       <c r="AA8">
@@ -1806,19 +1868,27 @@
         <v>232922</v>
       </c>
       <c r="AV8">
+        <f t="shared" si="0"/>
+        <v>11467870</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" si="1"/>
+        <v>1146787</v>
+      </c>
+      <c r="AX8">
         <v>1</v>
       </c>
-      <c r="AW8">
+      <c r="AY8">
         <v>10</v>
       </c>
-      <c r="AX8">
+      <c r="AZ8">
         <v>20</v>
       </c>
-      <c r="AY8">
+      <c r="BA8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -1867,7 +1937,7 @@
         <v>15765530</v>
       </c>
       <c r="Z9">
-        <f>Y9/AW9</f>
+        <f>Y9/AY9</f>
         <v>1576553</v>
       </c>
       <c r="AA9">
@@ -1904,19 +1974,27 @@
         <v>316842</v>
       </c>
       <c r="AV9">
+        <f t="shared" si="0"/>
+        <v>16560070</v>
+      </c>
+      <c r="AW9">
+        <f t="shared" si="1"/>
+        <v>1656007</v>
+      </c>
+      <c r="AX9">
         <v>1</v>
       </c>
-      <c r="AW9">
+      <c r="AY9">
         <v>10</v>
       </c>
-      <c r="AX9">
+      <c r="AZ9">
         <v>30</v>
       </c>
-      <c r="AY9">
+      <c r="BA9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -1995,7 +2073,7 @@
         <v>31531060</v>
       </c>
       <c r="Z10">
-        <f>Y10/AW10</f>
+        <f>Y10/AY10</f>
         <v>1576553</v>
       </c>
       <c r="AA10">
@@ -2062,19 +2140,27 @@
         <v>107042</v>
       </c>
       <c r="AV10">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4256740</v>
       </c>
       <c r="AW10">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>212837</v>
       </c>
       <c r="AX10">
         <v>1</v>
       </c>
       <c r="AY10">
+        <v>20</v>
+      </c>
+      <c r="AZ10">
+        <v>1</v>
+      </c>
+      <c r="BA10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -2153,7 +2239,7 @@
         <v>31531060</v>
       </c>
       <c r="Z11">
-        <f>Y11/AW11</f>
+        <f>Y11/AY11</f>
         <v>1576553</v>
       </c>
       <c r="AA11">
@@ -2220,19 +2306,27 @@
         <v>149002</v>
       </c>
       <c r="AV11">
+        <f t="shared" si="0"/>
+        <v>12751340</v>
+      </c>
+      <c r="AW11">
+        <f t="shared" si="1"/>
+        <v>637567</v>
+      </c>
+      <c r="AX11">
         <v>1</v>
       </c>
-      <c r="AW11">
+      <c r="AY11">
         <v>20</v>
       </c>
-      <c r="AX11">
+      <c r="AZ11">
         <v>10</v>
       </c>
-      <c r="AY11">
+      <c r="BA11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -2311,7 +2405,7 @@
         <v>31531060</v>
       </c>
       <c r="Z12">
-        <f>Y12/AW12</f>
+        <f>Y12/AY12</f>
         <v>1576553</v>
       </c>
       <c r="AA12">
@@ -2378,19 +2472,27 @@
         <v>232922</v>
       </c>
       <c r="AV12">
+        <f t="shared" si="0"/>
+        <v>22935740</v>
+      </c>
+      <c r="AW12">
+        <f t="shared" si="1"/>
+        <v>1146787</v>
+      </c>
+      <c r="AX12">
         <v>1</v>
       </c>
-      <c r="AW12">
+      <c r="AY12">
         <v>20</v>
       </c>
-      <c r="AX12">
+      <c r="AZ12">
         <v>20</v>
       </c>
-      <c r="AY12">
+      <c r="BA12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -2469,7 +2571,7 @@
         <v>31531060</v>
       </c>
       <c r="Z13">
-        <f>Y13/AW13</f>
+        <f>Y13/AY13</f>
         <v>1576553</v>
       </c>
       <c r="AA13">
@@ -2536,19 +2638,27 @@
         <v>316842</v>
       </c>
       <c r="AV13">
+        <f t="shared" si="0"/>
+        <v>33120140</v>
+      </c>
+      <c r="AW13">
+        <f t="shared" si="1"/>
+        <v>1656007</v>
+      </c>
+      <c r="AX13">
         <v>1</v>
       </c>
-      <c r="AW13">
+      <c r="AY13">
         <v>20</v>
       </c>
-      <c r="AX13">
+      <c r="AZ13">
         <v>30</v>
       </c>
-      <c r="AY13">
+      <c r="BA13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X14">
         <f>AVERAGE(X2:X13)</f>
         <v>280678</v>
@@ -2558,7 +2668,7 @@
         <v>1576542.3333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -2592,7 +2702,7 @@
         <v>7450395</v>
       </c>
       <c r="Z15">
-        <f>Y15/AW15</f>
+        <f>Y15/AY15</f>
         <v>1490079</v>
       </c>
       <c r="AA15">
@@ -2614,10 +2724,12 @@
         <v>133871</v>
       </c>
       <c r="AV15">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>896695</v>
       </c>
       <c r="AW15">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>179339</v>
       </c>
       <c r="AX15">
         <v>1</v>
@@ -2625,8 +2737,14 @@
       <c r="AY15">
         <v>5</v>
       </c>
+      <c r="AZ15">
+        <v>1</v>
+      </c>
+      <c r="BA15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -2660,7 +2778,7 @@
         <v>7450075</v>
       </c>
       <c r="Z16">
-        <f>Y16/AW16</f>
+        <f>Y16/AY16</f>
         <v>1490015</v>
       </c>
       <c r="AA16">
@@ -2682,19 +2800,27 @@
         <v>175831</v>
       </c>
       <c r="AV16">
+        <f t="shared" si="0"/>
+        <v>1106495</v>
+      </c>
+      <c r="AW16">
+        <f t="shared" si="1"/>
+        <v>221299</v>
+      </c>
+      <c r="AX16">
         <v>1</v>
       </c>
-      <c r="AW16">
-        <v>5</v>
-      </c>
-      <c r="AX16">
+      <c r="AY16">
+        <v>5</v>
+      </c>
+      <c r="AZ16">
         <v>10</v>
       </c>
-      <c r="AY16">
+      <c r="BA16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -2728,7 +2854,7 @@
         <v>7450075</v>
       </c>
       <c r="Z17">
-        <f>Y17/AW17</f>
+        <f>Y17/AY17</f>
         <v>1490015</v>
       </c>
       <c r="AA17">
@@ -2750,19 +2876,27 @@
         <v>259751</v>
       </c>
       <c r="AV17">
+        <f t="shared" si="0"/>
+        <v>1526095</v>
+      </c>
+      <c r="AW17">
+        <f t="shared" si="1"/>
+        <v>305219</v>
+      </c>
+      <c r="AX17">
         <v>1</v>
       </c>
-      <c r="AW17">
-        <v>5</v>
-      </c>
-      <c r="AX17">
+      <c r="AY17">
+        <v>5</v>
+      </c>
+      <c r="AZ17">
         <v>20</v>
       </c>
-      <c r="AY17">
+      <c r="BA17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -2796,7 +2930,7 @@
         <v>7450395</v>
       </c>
       <c r="Z18">
-        <f>Y18/AW18</f>
+        <f>Y18/AY18</f>
         <v>1490079</v>
       </c>
       <c r="AA18">
@@ -2818,19 +2952,27 @@
         <v>343671</v>
       </c>
       <c r="AV18">
+        <f t="shared" si="0"/>
+        <v>1945695</v>
+      </c>
+      <c r="AW18">
+        <f t="shared" si="1"/>
+        <v>389139</v>
+      </c>
+      <c r="AX18">
         <v>1</v>
       </c>
-      <c r="AW18">
-        <v>5</v>
-      </c>
-      <c r="AX18">
+      <c r="AY18">
+        <v>5</v>
+      </c>
+      <c r="AZ18">
         <v>30</v>
       </c>
-      <c r="AY18">
+      <c r="BA18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -2879,7 +3021,7 @@
         <v>14900790</v>
       </c>
       <c r="Z19">
-        <f>Y19/AW19</f>
+        <f>Y19/AY19</f>
         <v>1490079</v>
       </c>
       <c r="AA19">
@@ -2916,19 +3058,27 @@
         <v>133871</v>
       </c>
       <c r="AV19">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1793390</v>
       </c>
       <c r="AW19">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>179339</v>
       </c>
       <c r="AX19">
         <v>1</v>
       </c>
       <c r="AY19">
+        <v>10</v>
+      </c>
+      <c r="AZ19">
+        <v>1</v>
+      </c>
+      <c r="BA19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -2977,7 +3127,7 @@
         <v>14900790</v>
       </c>
       <c r="Z20">
-        <f>Y20/AW20</f>
+        <f>Y20/AY20</f>
         <v>1490079</v>
       </c>
       <c r="AA20">
@@ -3014,19 +3164,27 @@
         <v>175831</v>
       </c>
       <c r="AV20">
+        <f t="shared" si="0"/>
+        <v>2212990</v>
+      </c>
+      <c r="AW20">
+        <f t="shared" si="1"/>
+        <v>221299</v>
+      </c>
+      <c r="AX20">
         <v>1</v>
       </c>
-      <c r="AW20">
+      <c r="AY20">
         <v>10</v>
       </c>
-      <c r="AX20">
+      <c r="AZ20">
         <v>10</v>
       </c>
-      <c r="AY20">
+      <c r="BA20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -3075,7 +3233,7 @@
         <v>14900790</v>
       </c>
       <c r="Z21">
-        <f>Y21/AW21</f>
+        <f>Y21/AY21</f>
         <v>1490079</v>
       </c>
       <c r="AA21">
@@ -3112,19 +3270,27 @@
         <v>259751</v>
       </c>
       <c r="AV21">
+        <f t="shared" si="0"/>
+        <v>3052190</v>
+      </c>
+      <c r="AW21">
+        <f t="shared" si="1"/>
+        <v>305219</v>
+      </c>
+      <c r="AX21">
         <v>1</v>
       </c>
-      <c r="AW21">
+      <c r="AY21">
         <v>10</v>
       </c>
-      <c r="AX21">
+      <c r="AZ21">
         <v>20</v>
       </c>
-      <c r="AY21">
+      <c r="BA21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -3173,7 +3339,7 @@
         <v>14900790</v>
       </c>
       <c r="Z22">
-        <f>Y22/AW22</f>
+        <f>Y22/AY22</f>
         <v>1490079</v>
       </c>
       <c r="AA22">
@@ -3210,19 +3376,27 @@
         <v>343671</v>
       </c>
       <c r="AV22">
+        <f t="shared" si="0"/>
+        <v>3891390</v>
+      </c>
+      <c r="AW22">
+        <f t="shared" si="1"/>
+        <v>389139</v>
+      </c>
+      <c r="AX22">
         <v>1</v>
       </c>
-      <c r="AW22">
+      <c r="AY22">
         <v>10</v>
       </c>
-      <c r="AX22">
+      <c r="AZ22">
         <v>30</v>
       </c>
-      <c r="AY22">
+      <c r="BA22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -3301,7 +3475,7 @@
         <v>29801580</v>
       </c>
       <c r="Z23">
-        <f>Y23/AW23</f>
+        <f>Y23/AY23</f>
         <v>1490079</v>
       </c>
       <c r="AA23">
@@ -3368,19 +3542,27 @@
         <v>133871</v>
       </c>
       <c r="AV23">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3586780</v>
       </c>
       <c r="AW23">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>179339</v>
       </c>
       <c r="AX23">
         <v>1</v>
       </c>
       <c r="AY23">
+        <v>20</v>
+      </c>
+      <c r="AZ23">
+        <v>1</v>
+      </c>
+      <c r="BA23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -3459,7 +3641,7 @@
         <v>29801580</v>
       </c>
       <c r="Z24">
-        <f>Y24/AW24</f>
+        <f>Y24/AY24</f>
         <v>1490079</v>
       </c>
       <c r="AA24">
@@ -3526,19 +3708,27 @@
         <v>175831</v>
       </c>
       <c r="AV24">
+        <f t="shared" si="0"/>
+        <v>4425980</v>
+      </c>
+      <c r="AW24">
+        <f t="shared" si="1"/>
+        <v>221299</v>
+      </c>
+      <c r="AX24">
         <v>1</v>
       </c>
-      <c r="AW24">
+      <c r="AY24">
         <v>20</v>
       </c>
-      <c r="AX24">
+      <c r="AZ24">
         <v>10</v>
       </c>
-      <c r="AY24">
+      <c r="BA24">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -3617,7 +3807,7 @@
         <v>29801580</v>
       </c>
       <c r="Z25">
-        <f>Y25/AW25</f>
+        <f>Y25/AY25</f>
         <v>1490079</v>
       </c>
       <c r="AA25">
@@ -3684,19 +3874,27 @@
         <v>259751</v>
       </c>
       <c r="AV25">
+        <f t="shared" si="0"/>
+        <v>6104380</v>
+      </c>
+      <c r="AW25">
+        <f t="shared" si="1"/>
+        <v>305219</v>
+      </c>
+      <c r="AX25">
         <v>1</v>
       </c>
-      <c r="AW25">
+      <c r="AY25">
         <v>20</v>
       </c>
-      <c r="AX25">
+      <c r="AZ25">
         <v>20</v>
       </c>
-      <c r="AY25">
+      <c r="BA25">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -3775,7 +3973,7 @@
         <v>29801580</v>
       </c>
       <c r="Z26">
-        <f>Y26/AW26</f>
+        <f>Y26/AY26</f>
         <v>1490079</v>
       </c>
       <c r="AA26">
@@ -3842,19 +4040,27 @@
         <v>343671</v>
       </c>
       <c r="AV26">
+        <f t="shared" si="0"/>
+        <v>7782780</v>
+      </c>
+      <c r="AW26">
+        <f t="shared" si="1"/>
+        <v>389139</v>
+      </c>
+      <c r="AX26">
         <v>1</v>
       </c>
-      <c r="AW26">
+      <c r="AY26">
         <v>20</v>
       </c>
-      <c r="AX26">
+      <c r="AZ26">
         <v>30</v>
       </c>
-      <c r="AY26">
+      <c r="BA26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X27">
         <f>AVERAGE(X15:X26)</f>
         <v>280678</v>
@@ -3864,7 +4070,7 @@
         <v>1490068.3333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -3898,7 +4104,7 @@
         <v>7961770</v>
       </c>
       <c r="Z28">
-        <f>Y28/AW28</f>
+        <f>Y28/AY28</f>
         <v>1592354</v>
       </c>
       <c r="AA28">
@@ -3920,10 +4126,12 @@
         <v>113134</v>
       </c>
       <c r="AV28">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1178295</v>
       </c>
       <c r="AW28">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>235659</v>
       </c>
       <c r="AX28">
         <v>1</v>
@@ -3931,8 +4139,14 @@
       <c r="AY28">
         <v>5</v>
       </c>
+      <c r="AZ28">
+        <v>1</v>
+      </c>
+      <c r="BA28">
+        <v>5</v>
+      </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -3966,7 +4180,7 @@
         <v>7961770</v>
       </c>
       <c r="Z29">
-        <f>Y29/AW29</f>
+        <f>Y29/AY29</f>
         <v>1592354</v>
       </c>
       <c r="AA29">
@@ -3988,19 +4202,27 @@
         <v>140965</v>
       </c>
       <c r="AV29">
+        <f t="shared" si="0"/>
+        <v>1762155</v>
+      </c>
+      <c r="AW29">
+        <f t="shared" si="1"/>
+        <v>352431</v>
+      </c>
+      <c r="AX29">
         <v>1</v>
       </c>
-      <c r="AW29">
-        <v>5</v>
-      </c>
-      <c r="AX29">
+      <c r="AY29">
+        <v>5</v>
+      </c>
+      <c r="AZ29">
         <v>10</v>
       </c>
-      <c r="AY29">
+      <c r="BA29">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -4034,7 +4256,7 @@
         <v>7961770</v>
       </c>
       <c r="Z30">
-        <f>Y30/AW30</f>
+        <f>Y30/AY30</f>
         <v>1592354</v>
       </c>
       <c r="AA30">
@@ -4056,19 +4278,27 @@
         <v>196627</v>
       </c>
       <c r="AV30">
+        <f t="shared" si="0"/>
+        <v>3011040</v>
+      </c>
+      <c r="AW30">
+        <f t="shared" si="1"/>
+        <v>602208</v>
+      </c>
+      <c r="AX30">
         <v>1</v>
       </c>
-      <c r="AW30">
-        <v>5</v>
-      </c>
-      <c r="AX30">
+      <c r="AY30">
+        <v>5</v>
+      </c>
+      <c r="AZ30">
         <v>20</v>
       </c>
-      <c r="AY30">
+      <c r="BA30">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -4102,7 +4332,7 @@
         <v>7961770</v>
       </c>
       <c r="Z31">
-        <f>Y31/AW31</f>
+        <f>Y31/AY31</f>
         <v>1592354</v>
       </c>
       <c r="AA31">
@@ -4124,19 +4354,27 @@
         <v>252289</v>
       </c>
       <c r="AV31">
+        <f t="shared" si="0"/>
+        <v>4491465</v>
+      </c>
+      <c r="AW31">
+        <f t="shared" si="1"/>
+        <v>898293</v>
+      </c>
+      <c r="AX31">
         <v>1</v>
       </c>
-      <c r="AW31">
-        <v>5</v>
-      </c>
-      <c r="AX31">
+      <c r="AY31">
+        <v>5</v>
+      </c>
+      <c r="AZ31">
         <v>30</v>
       </c>
-      <c r="AY31">
+      <c r="BA31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -4185,7 +4423,7 @@
         <v>15923540</v>
       </c>
       <c r="Z32">
-        <f>Y32/AW32</f>
+        <f>Y32/AY32</f>
         <v>1592354</v>
       </c>
       <c r="AA32">
@@ -4222,19 +4460,27 @@
         <v>113134</v>
       </c>
       <c r="AV32">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2356590</v>
       </c>
       <c r="AW32">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>235659</v>
       </c>
       <c r="AX32">
         <v>1</v>
       </c>
       <c r="AY32">
+        <v>10</v>
+      </c>
+      <c r="AZ32">
+        <v>1</v>
+      </c>
+      <c r="BA32">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -4283,7 +4529,7 @@
         <v>15923540</v>
       </c>
       <c r="Z33">
-        <f>Y33/AW33</f>
+        <f>Y33/AY33</f>
         <v>1592354</v>
       </c>
       <c r="AA33">
@@ -4320,19 +4566,27 @@
         <v>140965</v>
       </c>
       <c r="AV33">
+        <f t="shared" si="0"/>
+        <v>3524310</v>
+      </c>
+      <c r="AW33">
+        <f t="shared" si="1"/>
+        <v>352431</v>
+      </c>
+      <c r="AX33">
         <v>1</v>
       </c>
-      <c r="AW33">
+      <c r="AY33">
         <v>10</v>
       </c>
-      <c r="AX33">
+      <c r="AZ33">
         <v>10</v>
       </c>
-      <c r="AY33">
+      <c r="BA33">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -4381,7 +4635,7 @@
         <v>15923540</v>
       </c>
       <c r="Z34">
-        <f>Y34/AW34</f>
+        <f>Y34/AY34</f>
         <v>1592354</v>
       </c>
       <c r="AA34">
@@ -4418,19 +4672,27 @@
         <v>196627</v>
       </c>
       <c r="AV34">
+        <f t="shared" si="0"/>
+        <v>6022080</v>
+      </c>
+      <c r="AW34">
+        <f t="shared" si="1"/>
+        <v>602208</v>
+      </c>
+      <c r="AX34">
         <v>1</v>
       </c>
-      <c r="AW34">
+      <c r="AY34">
         <v>10</v>
       </c>
-      <c r="AX34">
+      <c r="AZ34">
         <v>20</v>
       </c>
-      <c r="AY34">
+      <c r="BA34">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -4479,7 +4741,7 @@
         <v>15923540</v>
       </c>
       <c r="Z35">
-        <f>Y35/AW35</f>
+        <f>Y35/AY35</f>
         <v>1592354</v>
       </c>
       <c r="AA35">
@@ -4516,19 +4778,27 @@
         <v>252289</v>
       </c>
       <c r="AV35">
+        <f t="shared" si="0"/>
+        <v>9005470</v>
+      </c>
+      <c r="AW35">
+        <f t="shared" si="1"/>
+        <v>900547</v>
+      </c>
+      <c r="AX35">
         <v>1</v>
       </c>
-      <c r="AW35">
+      <c r="AY35">
         <v>10</v>
       </c>
-      <c r="AX35">
+      <c r="AZ35">
         <v>30</v>
       </c>
-      <c r="AY35">
+      <c r="BA35">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -4607,7 +4877,7 @@
         <v>31847080</v>
       </c>
       <c r="Z36">
-        <f>Y36/AW36</f>
+        <f>Y36/AY36</f>
         <v>1592354</v>
       </c>
       <c r="AA36">
@@ -4674,19 +4944,27 @@
         <v>113134</v>
       </c>
       <c r="AV36">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4713180</v>
       </c>
       <c r="AW36">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>235659</v>
       </c>
       <c r="AX36">
         <v>1</v>
       </c>
       <c r="AY36">
+        <v>20</v>
+      </c>
+      <c r="AZ36">
+        <v>1</v>
+      </c>
+      <c r="BA36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -4765,7 +5043,7 @@
         <v>31847080</v>
       </c>
       <c r="Z37">
-        <f>Y37/AW37</f>
+        <f>Y37/AY37</f>
         <v>1592354</v>
       </c>
       <c r="AA37">
@@ -4832,19 +5110,27 @@
         <v>140965</v>
       </c>
       <c r="AV37">
+        <f t="shared" si="0"/>
+        <v>7094960</v>
+      </c>
+      <c r="AW37">
+        <f t="shared" si="1"/>
+        <v>354748</v>
+      </c>
+      <c r="AX37">
         <v>1</v>
       </c>
-      <c r="AW37">
+      <c r="AY37">
         <v>20</v>
       </c>
-      <c r="AX37">
+      <c r="AZ37">
         <v>10</v>
       </c>
-      <c r="AY37">
+      <c r="BA37">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -4923,7 +5209,7 @@
         <v>31847080</v>
       </c>
       <c r="Z38">
-        <f>Y38/AW38</f>
+        <f>Y38/AY38</f>
         <v>1592354</v>
       </c>
       <c r="AA38">
@@ -4990,19 +5276,27 @@
         <v>196627</v>
       </c>
       <c r="AV38">
+        <f t="shared" si="0"/>
+        <v>12089240</v>
+      </c>
+      <c r="AW38">
+        <f t="shared" si="1"/>
+        <v>604462</v>
+      </c>
+      <c r="AX38">
         <v>1</v>
       </c>
-      <c r="AW38">
+      <c r="AY38">
         <v>20</v>
       </c>
-      <c r="AX38">
+      <c r="AZ38">
         <v>20</v>
       </c>
-      <c r="AY38">
+      <c r="BA38">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -5081,7 +5375,7 @@
         <v>31847080</v>
       </c>
       <c r="Z39">
-        <f>Y39/AW39</f>
+        <f>Y39/AY39</f>
         <v>1592354</v>
       </c>
       <c r="AA39">
@@ -5148,19 +5442,27 @@
         <v>252289</v>
       </c>
       <c r="AV39">
+        <f t="shared" si="0"/>
+        <v>18010940</v>
+      </c>
+      <c r="AW39">
+        <f t="shared" si="1"/>
+        <v>900547</v>
+      </c>
+      <c r="AX39">
         <v>1</v>
       </c>
-      <c r="AW39">
+      <c r="AY39">
         <v>20</v>
       </c>
-      <c r="AX39">
+      <c r="AZ39">
         <v>30</v>
       </c>
-      <c r="AY39">
+      <c r="BA39">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X40">
         <f>AVERAGE(X28:X39)</f>
         <v>280678</v>
@@ -5169,8 +5471,16 @@
         <f>AVERAGE(Z28:Z39)</f>
         <v>1592354</v>
       </c>
+      <c r="AV40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -5204,7 +5514,7 @@
         <v>7239090</v>
       </c>
       <c r="Z41">
-        <f>Y41/AW41</f>
+        <f>Y41/AY41</f>
         <v>1447818</v>
       </c>
       <c r="AA41">
@@ -5226,10 +5536,12 @@
         <v>117538</v>
       </c>
       <c r="AV41">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1169790</v>
       </c>
       <c r="AW41">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>233958</v>
       </c>
       <c r="AX41">
         <v>1</v>
@@ -5237,8 +5549,14 @@
       <c r="AY41">
         <v>5</v>
       </c>
+      <c r="AZ41">
+        <v>1</v>
+      </c>
+      <c r="BA41">
+        <v>5</v>
+      </c>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -5272,7 +5590,7 @@
         <v>7239410</v>
       </c>
       <c r="Z42">
-        <f>Y42/AW42</f>
+        <f>Y42/AY42</f>
         <v>1447882</v>
       </c>
       <c r="AA42">
@@ -5294,19 +5612,27 @@
         <v>147571</v>
       </c>
       <c r="AV42">
+        <f t="shared" si="0"/>
+        <v>1597845</v>
+      </c>
+      <c r="AW42">
+        <f t="shared" si="1"/>
+        <v>319569</v>
+      </c>
+      <c r="AX42">
         <v>1</v>
       </c>
-      <c r="AW42">
-        <v>5</v>
-      </c>
-      <c r="AX42">
+      <c r="AY42">
+        <v>5</v>
+      </c>
+      <c r="AZ42">
         <v>10</v>
       </c>
-      <c r="AY42">
+      <c r="BA42">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -5340,7 +5666,7 @@
         <v>7239410</v>
       </c>
       <c r="Z43">
-        <f>Y43/AW43</f>
+        <f>Y43/AY43</f>
         <v>1447882</v>
       </c>
       <c r="AA43">
@@ -5362,19 +5688,27 @@
         <v>207637</v>
       </c>
       <c r="AV43">
+        <f t="shared" si="0"/>
+        <v>2453955</v>
+      </c>
+      <c r="AW43">
+        <f t="shared" si="1"/>
+        <v>490791</v>
+      </c>
+      <c r="AX43">
         <v>1</v>
       </c>
-      <c r="AW43">
-        <v>5</v>
-      </c>
-      <c r="AX43">
+      <c r="AY43">
+        <v>5</v>
+      </c>
+      <c r="AZ43">
         <v>20</v>
       </c>
-      <c r="AY43">
+      <c r="BA43">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -5408,7 +5742,7 @@
         <v>7239090</v>
       </c>
       <c r="Z44">
-        <f>Y44/AW44</f>
+        <f>Y44/AY44</f>
         <v>1447818</v>
       </c>
       <c r="AA44">
@@ -5430,19 +5764,27 @@
         <v>267703</v>
       </c>
       <c r="AV44">
+        <f t="shared" si="0"/>
+        <v>3310065</v>
+      </c>
+      <c r="AW44">
+        <f t="shared" si="1"/>
+        <v>662013</v>
+      </c>
+      <c r="AX44">
         <v>1</v>
       </c>
-      <c r="AW44">
-        <v>5</v>
-      </c>
-      <c r="AX44">
+      <c r="AY44">
+        <v>5</v>
+      </c>
+      <c r="AZ44">
         <v>30</v>
       </c>
-      <c r="AY44">
+      <c r="BA44">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -5491,7 +5833,7 @@
         <v>14478820</v>
       </c>
       <c r="Z45">
-        <f>Y45/AW45</f>
+        <f>Y45/AY45</f>
         <v>1447882</v>
       </c>
       <c r="AA45">
@@ -5528,19 +5870,27 @@
         <v>117538</v>
       </c>
       <c r="AV45">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2339580</v>
       </c>
       <c r="AW45">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>233958</v>
       </c>
       <c r="AX45">
         <v>1</v>
       </c>
       <c r="AY45">
+        <v>10</v>
+      </c>
+      <c r="AZ45">
+        <v>1</v>
+      </c>
+      <c r="BA45">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -5589,7 +5939,7 @@
         <v>14478820</v>
       </c>
       <c r="Z46">
-        <f>Y46/AW46</f>
+        <f>Y46/AY46</f>
         <v>1447882</v>
       </c>
       <c r="AA46">
@@ -5626,19 +5976,27 @@
         <v>147571</v>
       </c>
       <c r="AV46">
+        <f t="shared" si="0"/>
+        <v>3195690</v>
+      </c>
+      <c r="AW46">
+        <f t="shared" si="1"/>
+        <v>319569</v>
+      </c>
+      <c r="AX46">
         <v>1</v>
       </c>
-      <c r="AW46">
+      <c r="AY46">
         <v>10</v>
       </c>
-      <c r="AX46">
+      <c r="AZ46">
         <v>10</v>
       </c>
-      <c r="AY46">
+      <c r="BA46">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -5687,7 +6045,7 @@
         <v>14478180</v>
       </c>
       <c r="Z47">
-        <f>Y47/AW47</f>
+        <f>Y47/AY47</f>
         <v>1447818</v>
       </c>
       <c r="AA47">
@@ -5724,19 +6082,27 @@
         <v>207637</v>
       </c>
       <c r="AV47">
+        <f t="shared" si="0"/>
+        <v>4907910</v>
+      </c>
+      <c r="AW47">
+        <f t="shared" si="1"/>
+        <v>490791</v>
+      </c>
+      <c r="AX47">
         <v>1</v>
       </c>
-      <c r="AW47">
+      <c r="AY47">
         <v>10</v>
       </c>
-      <c r="AX47">
+      <c r="AZ47">
         <v>20</v>
       </c>
-      <c r="AY47">
+      <c r="BA47">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -5785,7 +6151,7 @@
         <v>14478820</v>
       </c>
       <c r="Z48">
-        <f>Y48/AW48</f>
+        <f>Y48/AY48</f>
         <v>1447882</v>
       </c>
       <c r="AA48">
@@ -5822,19 +6188,27 @@
         <v>267703</v>
       </c>
       <c r="AV48">
+        <f t="shared" si="0"/>
+        <v>6620130</v>
+      </c>
+      <c r="AW48">
+        <f t="shared" si="1"/>
+        <v>662013</v>
+      </c>
+      <c r="AX48">
         <v>1</v>
       </c>
-      <c r="AW48">
+      <c r="AY48">
         <v>10</v>
       </c>
-      <c r="AX48">
+      <c r="AZ48">
         <v>30</v>
       </c>
-      <c r="AY48">
+      <c r="BA48">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -5913,7 +6287,7 @@
         <v>28956360</v>
       </c>
       <c r="Z49">
-        <f>Y49/AW49</f>
+        <f>Y49/AY49</f>
         <v>1447818</v>
       </c>
       <c r="AA49">
@@ -5980,19 +6354,27 @@
         <v>117538</v>
       </c>
       <c r="AV49">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4679160</v>
       </c>
       <c r="AW49">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>233958</v>
       </c>
       <c r="AX49">
         <v>1</v>
       </c>
       <c r="AY49">
+        <v>20</v>
+      </c>
+      <c r="AZ49">
+        <v>1</v>
+      </c>
+      <c r="BA49">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -6071,7 +6453,7 @@
         <v>28957640</v>
       </c>
       <c r="Z50">
-        <f>Y50/AW50</f>
+        <f>Y50/AY50</f>
         <v>1447882</v>
       </c>
       <c r="AA50">
@@ -6138,19 +6520,27 @@
         <v>147571</v>
       </c>
       <c r="AV50">
+        <f t="shared" si="0"/>
+        <v>6390100</v>
+      </c>
+      <c r="AW50">
+        <f t="shared" si="1"/>
+        <v>319505</v>
+      </c>
+      <c r="AX50">
         <v>1</v>
       </c>
-      <c r="AW50">
+      <c r="AY50">
         <v>20</v>
       </c>
-      <c r="AX50">
+      <c r="AZ50">
         <v>10</v>
       </c>
-      <c r="AY50">
+      <c r="BA50">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -6229,7 +6619,7 @@
         <v>28957640</v>
       </c>
       <c r="Z51">
-        <f>Y51/AW51</f>
+        <f>Y51/AY51</f>
         <v>1447882</v>
       </c>
       <c r="AA51">
@@ -6296,19 +6686,27 @@
         <v>207637</v>
       </c>
       <c r="AV51">
+        <f t="shared" si="0"/>
+        <v>9815820</v>
+      </c>
+      <c r="AW51">
+        <f t="shared" si="1"/>
+        <v>490791</v>
+      </c>
+      <c r="AX51">
         <v>1</v>
       </c>
-      <c r="AW51">
+      <c r="AY51">
         <v>20</v>
       </c>
-      <c r="AX51">
+      <c r="AZ51">
         <v>20</v>
       </c>
-      <c r="AY51">
+      <c r="BA51">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -6387,7 +6785,7 @@
         <v>28957640</v>
       </c>
       <c r="Z52">
-        <f>Y52/AW52</f>
+        <f>Y52/AY52</f>
         <v>1447882</v>
       </c>
       <c r="AA52">
@@ -6454,19 +6852,27 @@
         <v>267703</v>
       </c>
       <c r="AV52">
+        <f t="shared" si="0"/>
+        <v>13240260</v>
+      </c>
+      <c r="AW52">
+        <f t="shared" si="1"/>
+        <v>662013</v>
+      </c>
+      <c r="AX52">
         <v>1</v>
       </c>
-      <c r="AW52">
+      <c r="AY52">
         <v>20</v>
       </c>
-      <c r="AX52">
+      <c r="AZ52">
         <v>30</v>
       </c>
-      <c r="AY52">
+      <c r="BA52">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X53">
         <f>AVERAGE(X41:X52)</f>
         <v>280678</v>
@@ -6475,8 +6881,16 @@
         <f>AVERAGE(Z41:Z52)</f>
         <v>1447860.6666666667</v>
       </c>
+      <c r="AV53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW53" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -6510,7 +6924,7 @@
         <v>7602055</v>
       </c>
       <c r="Z54">
-        <f>Y54/AW54</f>
+        <f>Y54/AY54</f>
         <v>1520411</v>
       </c>
       <c r="AA54">
@@ -6532,10 +6946,12 @@
         <v>174021</v>
       </c>
       <c r="AV54">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>958524</v>
       </c>
       <c r="AW54">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>191704.8</v>
       </c>
       <c r="AX54">
         <v>1</v>
@@ -6543,8 +6959,14 @@
       <c r="AY54">
         <v>5</v>
       </c>
+      <c r="AZ54">
+        <v>1</v>
+      </c>
+      <c r="BA54">
+        <v>5</v>
+      </c>
     </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -6578,7 +7000,7 @@
         <v>7602055</v>
       </c>
       <c r="Z55">
-        <f>Y55/AW55</f>
+        <f>Y55/AY55</f>
         <v>1520411</v>
       </c>
       <c r="AA55">
@@ -6600,19 +7022,27 @@
         <v>277902</v>
       </c>
       <c r="AV55">
+        <f t="shared" si="0"/>
+        <v>2138700</v>
+      </c>
+      <c r="AW55">
+        <f t="shared" si="1"/>
+        <v>427740</v>
+      </c>
+      <c r="AX55">
         <v>1</v>
       </c>
-      <c r="AW55">
-        <v>5</v>
-      </c>
-      <c r="AX55">
+      <c r="AY55">
+        <v>5</v>
+      </c>
+      <c r="AZ55">
         <v>10</v>
       </c>
-      <c r="AY55">
+      <c r="BA55">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -6646,7 +7076,7 @@
         <v>7602055</v>
       </c>
       <c r="Z56">
-        <f>Y56/AW56</f>
+        <f>Y56/AY56</f>
         <v>1520411</v>
       </c>
       <c r="AA56">
@@ -6668,19 +7098,27 @@
         <v>518953</v>
       </c>
       <c r="AV56">
+        <f t="shared" si="0"/>
+        <v>4078145</v>
+      </c>
+      <c r="AW56">
+        <f t="shared" si="1"/>
+        <v>815629</v>
+      </c>
+      <c r="AX56">
         <v>1</v>
       </c>
-      <c r="AW56">
-        <v>5</v>
-      </c>
-      <c r="AX56">
+      <c r="AY56">
+        <v>5</v>
+      </c>
+      <c r="AZ56">
         <v>20</v>
       </c>
-      <c r="AY56">
+      <c r="BA56">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -6714,7 +7152,7 @@
         <v>7602055</v>
       </c>
       <c r="Z57">
-        <f>Y57/AW57</f>
+        <f>Y57/AY57</f>
         <v>1520411</v>
       </c>
       <c r="AA57">
@@ -6736,19 +7174,27 @@
         <v>837164</v>
       </c>
       <c r="AV57">
+        <f t="shared" si="0"/>
+        <v>6411958</v>
+      </c>
+      <c r="AW57">
+        <f t="shared" si="1"/>
+        <v>1282391.6000000001</v>
+      </c>
+      <c r="AX57">
         <v>1</v>
       </c>
-      <c r="AW57">
-        <v>5</v>
-      </c>
-      <c r="AX57">
+      <c r="AY57">
+        <v>5</v>
+      </c>
+      <c r="AZ57">
         <v>30</v>
       </c>
-      <c r="AY57">
+      <c r="BA57">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -6797,7 +7243,7 @@
         <v>15203470</v>
       </c>
       <c r="Z58">
-        <f>Y58/AW58</f>
+        <f>Y58/AY58</f>
         <v>1520347</v>
       </c>
       <c r="AA58">
@@ -6834,19 +7280,27 @@
         <v>174021</v>
       </c>
       <c r="AV58">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1828629</v>
       </c>
       <c r="AW58">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>182862.9</v>
       </c>
       <c r="AX58">
         <v>1</v>
       </c>
       <c r="AY58">
+        <v>10</v>
+      </c>
+      <c r="AZ58">
+        <v>1</v>
+      </c>
+      <c r="BA58">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -6895,7 +7349,7 @@
         <v>15204110</v>
       </c>
       <c r="Z59">
-        <f>Y59/AW59</f>
+        <f>Y59/AY59</f>
         <v>1520411</v>
       </c>
       <c r="AA59">
@@ -6932,19 +7386,27 @@
         <v>282181</v>
       </c>
       <c r="AV59">
+        <f t="shared" si="0"/>
+        <v>3532489</v>
+      </c>
+      <c r="AW59">
+        <f t="shared" si="1"/>
+        <v>353248.9</v>
+      </c>
+      <c r="AX59">
         <v>1</v>
       </c>
-      <c r="AW59">
+      <c r="AY59">
         <v>10</v>
       </c>
-      <c r="AX59">
+      <c r="AZ59">
         <v>10</v>
       </c>
-      <c r="AY59">
+      <c r="BA59">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -6993,7 +7455,7 @@
         <v>15204110</v>
       </c>
       <c r="Z60">
-        <f>Y60/AW60</f>
+        <f>Y60/AY60</f>
         <v>1520411</v>
       </c>
       <c r="AA60">
@@ -7030,19 +7492,27 @@
         <v>523232</v>
       </c>
       <c r="AV60">
+        <f t="shared" si="0"/>
+        <v>6660055</v>
+      </c>
+      <c r="AW60">
+        <f t="shared" si="1"/>
+        <v>666005.5</v>
+      </c>
+      <c r="AX60">
         <v>1</v>
       </c>
-      <c r="AW60">
+      <c r="AY60">
         <v>10</v>
       </c>
-      <c r="AX60">
+      <c r="AZ60">
         <v>20</v>
       </c>
-      <c r="AY60">
+      <c r="BA60">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -7091,7 +7561,7 @@
         <v>15204110</v>
       </c>
       <c r="Z61">
-        <f>Y61/AW61</f>
+        <f>Y61/AY61</f>
         <v>1520411</v>
       </c>
       <c r="AA61">
@@ -7128,19 +7598,27 @@
         <v>845733</v>
       </c>
       <c r="AV61">
+        <f t="shared" si="0"/>
+        <v>10666324</v>
+      </c>
+      <c r="AW61">
+        <f t="shared" si="1"/>
+        <v>1066632.3999999999</v>
+      </c>
+      <c r="AX61">
         <v>1</v>
       </c>
-      <c r="AW61">
+      <c r="AY61">
         <v>10</v>
       </c>
-      <c r="AX61">
+      <c r="AZ61">
         <v>30</v>
       </c>
-      <c r="AY61">
+      <c r="BA61">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -7219,7 +7697,7 @@
         <v>30408220</v>
       </c>
       <c r="Z62">
-        <f>Y62/AW62</f>
+        <f>Y62/AY62</f>
         <v>1520411</v>
       </c>
       <c r="AA62">
@@ -7286,19 +7764,27 @@
         <v>174021</v>
       </c>
       <c r="AV62">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3568839</v>
       </c>
       <c r="AW62">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>178441.95</v>
       </c>
       <c r="AX62">
         <v>1</v>
       </c>
       <c r="AY62">
+        <v>20</v>
+      </c>
+      <c r="AZ62">
+        <v>1</v>
+      </c>
+      <c r="BA62">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -7377,7 +7863,7 @@
         <v>30408220</v>
       </c>
       <c r="Z63">
-        <f>Y63/AW63</f>
+        <f>Y63/AY63</f>
         <v>1520411</v>
       </c>
       <c r="AA63">
@@ -7444,19 +7930,27 @@
         <v>277902</v>
       </c>
       <c r="AV63">
+        <f t="shared" si="0"/>
+        <v>6307230</v>
+      </c>
+      <c r="AW63">
+        <f t="shared" si="1"/>
+        <v>315361.5</v>
+      </c>
+      <c r="AX63">
         <v>1</v>
       </c>
-      <c r="AW63">
+      <c r="AY63">
         <v>20</v>
       </c>
-      <c r="AX63">
+      <c r="AZ63">
         <v>10</v>
       </c>
-      <c r="AY63">
+      <c r="BA63">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -7535,7 +8029,7 @@
         <v>30408220</v>
       </c>
       <c r="Z64">
-        <f>Y64/AW64</f>
+        <f>Y64/AY64</f>
         <v>1520411</v>
       </c>
       <c r="AA64">
@@ -7602,19 +8096,27 @@
         <v>514672</v>
       </c>
       <c r="AV64">
+        <f t="shared" si="0"/>
+        <v>11776820</v>
+      </c>
+      <c r="AW64">
+        <f t="shared" si="1"/>
+        <v>588841</v>
+      </c>
+      <c r="AX64">
         <v>1</v>
       </c>
-      <c r="AW64">
+      <c r="AY64">
         <v>20</v>
       </c>
-      <c r="AX64">
+      <c r="AZ64">
         <v>20</v>
       </c>
-      <c r="AY64">
+      <c r="BA64">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -7693,7 +8195,7 @@
         <v>30408220</v>
       </c>
       <c r="Z65">
-        <f>Y65/AW65</f>
+        <f>Y65/AY65</f>
         <v>1520411</v>
       </c>
       <c r="AA65">
@@ -7760,19 +8262,27 @@
         <v>837164</v>
       </c>
       <c r="AV65">
+        <f t="shared" si="0"/>
+        <v>18960850</v>
+      </c>
+      <c r="AW65">
+        <f t="shared" si="1"/>
+        <v>948042.5</v>
+      </c>
+      <c r="AX65">
         <v>1</v>
       </c>
-      <c r="AW65">
+      <c r="AY65">
         <v>20</v>
       </c>
-      <c r="AX65">
+      <c r="AZ65">
         <v>30</v>
       </c>
-      <c r="AY65">
+      <c r="BA65">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X66">
         <f>AVERAGE(X54:X65)</f>
         <v>466709</v>
@@ -7781,8 +8291,16 @@
         <f>AVERAGE(Z54:Z65)</f>
         <v>1520405.6666666667</v>
       </c>
+      <c r="AV66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW66" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>48</v>
       </c>
@@ -7816,7 +8334,7 @@
         <v>6931705</v>
       </c>
       <c r="Z67">
-        <f>Y67/AW67</f>
+        <f>Y67/AY67</f>
         <v>1386341</v>
       </c>
       <c r="AA67">
@@ -7838,10 +8356,12 @@
         <v>172738</v>
       </c>
       <c r="AV67">
-        <v>1</v>
+        <f t="shared" ref="AV67:AV130" si="2">SUM(AA67:AU67)</f>
+        <v>952109</v>
       </c>
       <c r="AW67">
-        <v>5</v>
+        <f t="shared" ref="AW67:AW130" si="3">AV67/AY67</f>
+        <v>190421.8</v>
       </c>
       <c r="AX67">
         <v>1</v>
@@ -7849,8 +8369,14 @@
       <c r="AY67">
         <v>5</v>
       </c>
+      <c r="AZ67">
+        <v>1</v>
+      </c>
+      <c r="BA67">
+        <v>5</v>
+      </c>
     </row>
-    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -7884,7 +8410,7 @@
         <v>6931705</v>
       </c>
       <c r="Z68">
-        <f>Y68/AW68</f>
+        <f>Y68/AY68</f>
         <v>1386341</v>
       </c>
       <c r="AA68">
@@ -7906,19 +8432,27 @@
         <v>240198</v>
       </c>
       <c r="AV68">
+        <f t="shared" si="2"/>
+        <v>1950180</v>
+      </c>
+      <c r="AW68">
+        <f t="shared" si="3"/>
+        <v>390036</v>
+      </c>
+      <c r="AX68">
         <v>1</v>
       </c>
-      <c r="AW68">
-        <v>5</v>
-      </c>
-      <c r="AX68">
+      <c r="AY68">
+        <v>5</v>
+      </c>
+      <c r="AZ68">
         <v>10</v>
       </c>
-      <c r="AY68">
+      <c r="BA68">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>60</v>
       </c>
@@ -7952,7 +8486,7 @@
         <v>6931705</v>
       </c>
       <c r="Z69">
-        <f>Y69/AW69</f>
+        <f>Y69/AY69</f>
         <v>1386341</v>
       </c>
       <c r="AA69">
@@ -7974,19 +8508,27 @@
         <v>382344</v>
       </c>
       <c r="AV69">
+        <f t="shared" si="2"/>
+        <v>3395100</v>
+      </c>
+      <c r="AW69">
+        <f t="shared" si="3"/>
+        <v>679020</v>
+      </c>
+      <c r="AX69">
         <v>1</v>
       </c>
-      <c r="AW69">
-        <v>5</v>
-      </c>
-      <c r="AX69">
+      <c r="AY69">
+        <v>5</v>
+      </c>
+      <c r="AZ69">
         <v>20</v>
       </c>
-      <c r="AY69">
+      <c r="BA69">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>61</v>
       </c>
@@ -8020,7 +8562,7 @@
         <v>6931705</v>
       </c>
       <c r="Z70">
-        <f>Y70/AW70</f>
+        <f>Y70/AY70</f>
         <v>1386341</v>
       </c>
       <c r="AA70">
@@ -8042,19 +8584,27 @@
         <v>543012</v>
       </c>
       <c r="AV70">
+        <f t="shared" si="2"/>
+        <v>4932630</v>
+      </c>
+      <c r="AW70">
+        <f t="shared" si="3"/>
+        <v>986526</v>
+      </c>
+      <c r="AX70">
         <v>1</v>
       </c>
-      <c r="AW70">
-        <v>5</v>
-      </c>
-      <c r="AX70">
+      <c r="AY70">
+        <v>5</v>
+      </c>
+      <c r="AZ70">
         <v>30</v>
       </c>
-      <c r="AY70">
+      <c r="BA70">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>62</v>
       </c>
@@ -8103,7 +8653,7 @@
         <v>13863410</v>
       </c>
       <c r="Z71">
-        <f>Y71/AW71</f>
+        <f>Y71/AY71</f>
         <v>1386341</v>
       </c>
       <c r="AA71">
@@ -8140,19 +8690,27 @@
         <v>172738</v>
       </c>
       <c r="AV71">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1815799</v>
       </c>
       <c r="AW71">
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>181579.9</v>
       </c>
       <c r="AX71">
         <v>1</v>
       </c>
       <c r="AY71">
+        <v>10</v>
+      </c>
+      <c r="AZ71">
+        <v>1</v>
+      </c>
+      <c r="BA71">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>63</v>
       </c>
@@ -8201,7 +8759,7 @@
         <v>13863410</v>
       </c>
       <c r="Z72">
-        <f>Y72/AW72</f>
+        <f>Y72/AY72</f>
         <v>1386341</v>
       </c>
       <c r="AA72">
@@ -8238,19 +8796,27 @@
         <v>240198</v>
       </c>
       <c r="AV72">
+        <f t="shared" si="2"/>
+        <v>3151170</v>
+      </c>
+      <c r="AW72">
+        <f t="shared" si="3"/>
+        <v>315117</v>
+      </c>
+      <c r="AX72">
         <v>1</v>
       </c>
-      <c r="AW72">
+      <c r="AY72">
         <v>10</v>
       </c>
-      <c r="AX72">
+      <c r="AZ72">
         <v>10</v>
       </c>
-      <c r="AY72">
+      <c r="BA72">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>64</v>
       </c>
@@ -8299,7 +8865,7 @@
         <v>13863410</v>
       </c>
       <c r="Z73">
-        <f>Y73/AW73</f>
+        <f>Y73/AY73</f>
         <v>1386341</v>
       </c>
       <c r="AA73">
@@ -8336,19 +8902,27 @@
         <v>381315</v>
       </c>
       <c r="AV73">
+        <f t="shared" si="2"/>
+        <v>5296530</v>
+      </c>
+      <c r="AW73">
+        <f t="shared" si="3"/>
+        <v>529653</v>
+      </c>
+      <c r="AX73">
         <v>1</v>
       </c>
-      <c r="AW73">
+      <c r="AY73">
         <v>10</v>
       </c>
-      <c r="AX73">
+      <c r="AZ73">
         <v>20</v>
       </c>
-      <c r="AY73">
+      <c r="BA73">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>65</v>
       </c>
@@ -8397,7 +8971,7 @@
         <v>13863410</v>
       </c>
       <c r="Z74">
-        <f>Y74/AW74</f>
+        <f>Y74/AY74</f>
         <v>1386341</v>
       </c>
       <c r="AA74">
@@ -8434,19 +9008,27 @@
         <v>543012</v>
       </c>
       <c r="AV74">
+        <f t="shared" si="2"/>
+        <v>7647690</v>
+      </c>
+      <c r="AW74">
+        <f t="shared" si="3"/>
+        <v>764769</v>
+      </c>
+      <c r="AX74">
         <v>1</v>
       </c>
-      <c r="AW74">
+      <c r="AY74">
         <v>10</v>
       </c>
-      <c r="AX74">
+      <c r="AZ74">
         <v>30</v>
       </c>
-      <c r="AY74">
+      <c r="BA74">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>66</v>
       </c>
@@ -8525,7 +9107,7 @@
         <v>27726820</v>
       </c>
       <c r="Z75">
-        <f>Y75/AW75</f>
+        <f>Y75/AY75</f>
         <v>1386341</v>
       </c>
       <c r="AA75">
@@ -8592,19 +9174,27 @@
         <v>172738</v>
       </c>
       <c r="AV75">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3543179</v>
       </c>
       <c r="AW75">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>177158.95</v>
       </c>
       <c r="AX75">
         <v>1</v>
       </c>
       <c r="AY75">
+        <v>20</v>
+      </c>
+      <c r="AZ75">
+        <v>1</v>
+      </c>
+      <c r="BA75">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>67</v>
       </c>
@@ -8683,7 +9273,7 @@
         <v>27726820</v>
       </c>
       <c r="Z76">
-        <f>Y76/AW76</f>
+        <f>Y76/AY76</f>
         <v>1386341</v>
       </c>
       <c r="AA76">
@@ -8750,19 +9340,27 @@
         <v>240198</v>
       </c>
       <c r="AV76">
+        <f t="shared" si="2"/>
+        <v>5553150</v>
+      </c>
+      <c r="AW76">
+        <f t="shared" si="3"/>
+        <v>277657.5</v>
+      </c>
+      <c r="AX76">
         <v>1</v>
       </c>
-      <c r="AW76">
+      <c r="AY76">
         <v>20</v>
       </c>
-      <c r="AX76">
+      <c r="AZ76">
         <v>10</v>
       </c>
-      <c r="AY76">
+      <c r="BA76">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>68</v>
       </c>
@@ -8841,7 +9439,7 @@
         <v>27726820</v>
       </c>
       <c r="Z77">
-        <f>Y77/AW77</f>
+        <f>Y77/AY77</f>
         <v>1386341</v>
       </c>
       <c r="AA77">
@@ -8908,19 +9506,27 @@
         <v>381315</v>
       </c>
       <c r="AV77">
+        <f t="shared" si="2"/>
+        <v>9109680</v>
+      </c>
+      <c r="AW77">
+        <f t="shared" si="3"/>
+        <v>455484</v>
+      </c>
+      <c r="AX77">
         <v>1</v>
       </c>
-      <c r="AW77">
+      <c r="AY77">
         <v>20</v>
       </c>
-      <c r="AX77">
+      <c r="AZ77">
         <v>20</v>
       </c>
-      <c r="AY77">
+      <c r="BA77">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>69</v>
       </c>
@@ -8999,7 +9605,7 @@
         <v>27726820</v>
       </c>
       <c r="Z78">
-        <f>Y78/AW78</f>
+        <f>Y78/AY78</f>
         <v>1386341</v>
       </c>
       <c r="AA78">
@@ -9066,19 +9672,27 @@
         <v>544041</v>
       </c>
       <c r="AV78">
+        <f t="shared" si="2"/>
+        <v>13094274</v>
+      </c>
+      <c r="AW78">
+        <f t="shared" si="3"/>
+        <v>654713.69999999995</v>
+      </c>
+      <c r="AX78">
         <v>1</v>
       </c>
-      <c r="AW78">
+      <c r="AY78">
         <v>20</v>
       </c>
-      <c r="AX78">
+      <c r="AZ78">
         <v>30</v>
       </c>
-      <c r="AY78">
+      <c r="BA78">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X79">
         <f>AVERAGE(X67:X78)</f>
         <v>552095</v>
@@ -9087,8 +9701,16 @@
         <f>AVERAGE(Z67:Z78)</f>
         <v>1386341</v>
       </c>
+      <c r="AV79">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AW79" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="80" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>48</v>
       </c>
@@ -9122,7 +9744,7 @@
         <v>7509650</v>
       </c>
       <c r="Z80">
-        <f>Y80/AW80</f>
+        <f>Y80/AY80</f>
         <v>1501930</v>
       </c>
       <c r="AA80">
@@ -9144,10 +9766,12 @@
         <v>136814</v>
       </c>
       <c r="AV80">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1248835</v>
       </c>
       <c r="AW80">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>249767</v>
       </c>
       <c r="AX80">
         <v>1</v>
@@ -9155,8 +9779,14 @@
       <c r="AY80">
         <v>5</v>
       </c>
+      <c r="AZ80">
+        <v>1</v>
+      </c>
+      <c r="BA80">
+        <v>5</v>
+      </c>
     </row>
-    <row r="81" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>59</v>
       </c>
@@ -9190,7 +9820,7 @@
         <v>7509650</v>
       </c>
       <c r="Z81">
-        <f>Y81/AW81</f>
+        <f>Y81/AY81</f>
         <v>1501930</v>
       </c>
       <c r="AA81">
@@ -9212,19 +9842,27 @@
         <v>168976</v>
       </c>
       <c r="AV81">
+        <f t="shared" si="2"/>
+        <v>1676810</v>
+      </c>
+      <c r="AW81">
+        <f t="shared" si="3"/>
+        <v>335362</v>
+      </c>
+      <c r="AX81">
         <v>1</v>
       </c>
-      <c r="AW81">
-        <v>5</v>
-      </c>
-      <c r="AX81">
+      <c r="AY81">
+        <v>5</v>
+      </c>
+      <c r="AZ81">
         <v>10</v>
       </c>
-      <c r="AY81">
+      <c r="BA81">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>60</v>
       </c>
@@ -9258,7 +9896,7 @@
         <v>7509650</v>
       </c>
       <c r="Z82">
-        <f>Y82/AW82</f>
+        <f>Y82/AY82</f>
         <v>1501930</v>
       </c>
       <c r="AA82">
@@ -9280,19 +9918,27 @@
         <v>233300</v>
       </c>
       <c r="AV82">
+        <f t="shared" si="2"/>
+        <v>2532760</v>
+      </c>
+      <c r="AW82">
+        <f t="shared" si="3"/>
+        <v>506552</v>
+      </c>
+      <c r="AX82">
         <v>1</v>
       </c>
-      <c r="AW82">
-        <v>5</v>
-      </c>
-      <c r="AX82">
+      <c r="AY82">
+        <v>5</v>
+      </c>
+      <c r="AZ82">
         <v>20</v>
       </c>
-      <c r="AY82">
+      <c r="BA82">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>61</v>
       </c>
@@ -9326,7 +9972,7 @@
         <v>7509650</v>
       </c>
       <c r="Z83">
-        <f>Y83/AW83</f>
+        <f>Y83/AY83</f>
         <v>1501930</v>
       </c>
       <c r="AA83">
@@ -9348,19 +9994,27 @@
         <v>297624</v>
       </c>
       <c r="AV83">
+        <f t="shared" si="2"/>
+        <v>3388710</v>
+      </c>
+      <c r="AW83">
+        <f t="shared" si="3"/>
+        <v>677742</v>
+      </c>
+      <c r="AX83">
         <v>1</v>
       </c>
-      <c r="AW83">
-        <v>5</v>
-      </c>
-      <c r="AX83">
+      <c r="AY83">
+        <v>5</v>
+      </c>
+      <c r="AZ83">
         <v>30</v>
       </c>
-      <c r="AY83">
+      <c r="BA83">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>62</v>
       </c>
@@ -9409,7 +10063,7 @@
         <v>15019300</v>
       </c>
       <c r="Z84">
-        <f>Y84/AW84</f>
+        <f>Y84/AY84</f>
         <v>1501930</v>
       </c>
       <c r="AA84">
@@ -9446,19 +10100,27 @@
         <v>136814</v>
       </c>
       <c r="AV84">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2497670</v>
       </c>
       <c r="AW84">
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>249767</v>
       </c>
       <c r="AX84">
         <v>1</v>
       </c>
       <c r="AY84">
+        <v>10</v>
+      </c>
+      <c r="AZ84">
+        <v>1</v>
+      </c>
+      <c r="BA84">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>63</v>
       </c>
@@ -9507,7 +10169,7 @@
         <v>15019300</v>
       </c>
       <c r="Z85">
-        <f>Y85/AW85</f>
+        <f>Y85/AY85</f>
         <v>1501930</v>
       </c>
       <c r="AA85">
@@ -9544,19 +10206,27 @@
         <v>168976</v>
       </c>
       <c r="AV85">
+        <f t="shared" si="2"/>
+        <v>3353620</v>
+      </c>
+      <c r="AW85">
+        <f t="shared" si="3"/>
+        <v>335362</v>
+      </c>
+      <c r="AX85">
         <v>1</v>
       </c>
-      <c r="AW85">
+      <c r="AY85">
         <v>10</v>
       </c>
-      <c r="AX85">
+      <c r="AZ85">
         <v>10</v>
       </c>
-      <c r="AY85">
+      <c r="BA85">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>64</v>
       </c>
@@ -9605,7 +10275,7 @@
         <v>15019300</v>
       </c>
       <c r="Z86">
-        <f>Y86/AW86</f>
+        <f>Y86/AY86</f>
         <v>1501930</v>
       </c>
       <c r="AA86">
@@ -9642,19 +10312,27 @@
         <v>233300</v>
       </c>
       <c r="AV86">
+        <f t="shared" si="2"/>
+        <v>5065520</v>
+      </c>
+      <c r="AW86">
+        <f t="shared" si="3"/>
+        <v>506552</v>
+      </c>
+      <c r="AX86">
         <v>1</v>
       </c>
-      <c r="AW86">
+      <c r="AY86">
         <v>10</v>
       </c>
-      <c r="AX86">
+      <c r="AZ86">
         <v>20</v>
       </c>
-      <c r="AY86">
+      <c r="BA86">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>65</v>
       </c>
@@ -9703,7 +10381,7 @@
         <v>15019300</v>
       </c>
       <c r="Z87">
-        <f>Y87/AW87</f>
+        <f>Y87/AY87</f>
         <v>1501930</v>
       </c>
       <c r="AA87">
@@ -9740,19 +10418,27 @@
         <v>297624</v>
       </c>
       <c r="AV87">
+        <f t="shared" si="2"/>
+        <v>6777420</v>
+      </c>
+      <c r="AW87">
+        <f t="shared" si="3"/>
+        <v>677742</v>
+      </c>
+      <c r="AX87">
         <v>1</v>
       </c>
-      <c r="AW87">
+      <c r="AY87">
         <v>10</v>
       </c>
-      <c r="AX87">
+      <c r="AZ87">
         <v>30</v>
       </c>
-      <c r="AY87">
+      <c r="BA87">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>66</v>
       </c>
@@ -9831,7 +10517,7 @@
         <v>30038600</v>
       </c>
       <c r="Z88">
-        <f>Y88/AW88</f>
+        <f>Y88/AY88</f>
         <v>1501930</v>
       </c>
       <c r="AA88">
@@ -9898,19 +10584,27 @@
         <v>136814</v>
       </c>
       <c r="AV88">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>4995340</v>
       </c>
       <c r="AW88">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>249767</v>
       </c>
       <c r="AX88">
         <v>1</v>
       </c>
       <c r="AY88">
+        <v>20</v>
+      </c>
+      <c r="AZ88">
+        <v>1</v>
+      </c>
+      <c r="BA88">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>67</v>
       </c>
@@ -9989,7 +10683,7 @@
         <v>30038600</v>
       </c>
       <c r="Z89">
-        <f>Y89/AW89</f>
+        <f>Y89/AY89</f>
         <v>1501930</v>
       </c>
       <c r="AA89">
@@ -10056,19 +10750,27 @@
         <v>168976</v>
       </c>
       <c r="AV89">
+        <f t="shared" si="2"/>
+        <v>6707240</v>
+      </c>
+      <c r="AW89">
+        <f t="shared" si="3"/>
+        <v>335362</v>
+      </c>
+      <c r="AX89">
         <v>1</v>
       </c>
-      <c r="AW89">
+      <c r="AY89">
         <v>20</v>
       </c>
-      <c r="AX89">
+      <c r="AZ89">
         <v>10</v>
       </c>
-      <c r="AY89">
+      <c r="BA89">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>68</v>
       </c>
@@ -10147,7 +10849,7 @@
         <v>30038600</v>
       </c>
       <c r="Z90">
-        <f>Y90/AW90</f>
+        <f>Y90/AY90</f>
         <v>1501930</v>
       </c>
       <c r="AA90">
@@ -10214,19 +10916,27 @@
         <v>233300</v>
       </c>
       <c r="AV90">
+        <f t="shared" si="2"/>
+        <v>10131040</v>
+      </c>
+      <c r="AW90">
+        <f t="shared" si="3"/>
+        <v>506552</v>
+      </c>
+      <c r="AX90">
         <v>1</v>
       </c>
-      <c r="AW90">
+      <c r="AY90">
         <v>20</v>
       </c>
-      <c r="AX90">
+      <c r="AZ90">
         <v>20</v>
       </c>
-      <c r="AY90">
+      <c r="BA90">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>69</v>
       </c>
@@ -10305,7 +11015,7 @@
         <v>30038600</v>
       </c>
       <c r="Z91">
-        <f>Y91/AW91</f>
+        <f>Y91/AY91</f>
         <v>1501930</v>
       </c>
       <c r="AA91">
@@ -10372,19 +11082,27 @@
         <v>297624</v>
       </c>
       <c r="AV91">
+        <f t="shared" si="2"/>
+        <v>13554840</v>
+      </c>
+      <c r="AW91">
+        <f t="shared" si="3"/>
+        <v>677742</v>
+      </c>
+      <c r="AX91">
         <v>1</v>
       </c>
-      <c r="AW91">
+      <c r="AY91">
         <v>20</v>
       </c>
-      <c r="AX91">
+      <c r="AZ91">
         <v>30</v>
       </c>
-      <c r="AY91">
+      <c r="BA91">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X92">
         <f>AVERAGE(X80:X91)</f>
         <v>280678</v>
@@ -10393,8 +11111,16 @@
         <f>AVERAGE(Z80:Z91)</f>
         <v>1501930</v>
       </c>
+      <c r="AV92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AW92" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="93" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>48</v>
       </c>
@@ -10428,7 +11154,7 @@
         <v>7382950</v>
       </c>
       <c r="Z93">
-        <f>Y93/AW93</f>
+        <f>Y93/AY93</f>
         <v>1476590</v>
       </c>
       <c r="AA93">
@@ -10450,10 +11176,12 @@
         <v>141198</v>
       </c>
       <c r="AV93">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1259640</v>
       </c>
       <c r="AW93">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>251928</v>
       </c>
       <c r="AX93">
         <v>1</v>
@@ -10461,8 +11189,14 @@
       <c r="AY93">
         <v>5</v>
       </c>
+      <c r="AZ93">
+        <v>1</v>
+      </c>
+      <c r="BA93">
+        <v>5</v>
+      </c>
     </row>
-    <row r="94" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>59</v>
       </c>
@@ -10496,7 +11230,7 @@
         <v>7382950</v>
       </c>
       <c r="Z94">
-        <f>Y94/AW94</f>
+        <f>Y94/AY94</f>
         <v>1476590</v>
       </c>
       <c r="AA94">
@@ -10518,19 +11252,27 @@
         <v>175552</v>
       </c>
       <c r="AV94">
+        <f t="shared" si="2"/>
+        <v>1692690</v>
+      </c>
+      <c r="AW94">
+        <f t="shared" si="3"/>
+        <v>338538</v>
+      </c>
+      <c r="AX94">
         <v>1</v>
       </c>
-      <c r="AW94">
-        <v>5</v>
-      </c>
-      <c r="AX94">
+      <c r="AY94">
+        <v>5</v>
+      </c>
+      <c r="AZ94">
         <v>10</v>
       </c>
-      <c r="AY94">
+      <c r="BA94">
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>60</v>
       </c>
@@ -10564,7 +11306,7 @@
         <v>7382950</v>
       </c>
       <c r="Z95">
-        <f>Y95/AW95</f>
+        <f>Y95/AY95</f>
         <v>1476590</v>
       </c>
       <c r="AA95">
@@ -10586,19 +11328,27 @@
         <v>244260</v>
       </c>
       <c r="AV95">
+        <f t="shared" si="2"/>
+        <v>2558790</v>
+      </c>
+      <c r="AW95">
+        <f t="shared" si="3"/>
+        <v>511758</v>
+      </c>
+      <c r="AX95">
         <v>1</v>
       </c>
-      <c r="AW95">
-        <v>5</v>
-      </c>
-      <c r="AX95">
+      <c r="AY95">
+        <v>5</v>
+      </c>
+      <c r="AZ95">
         <v>20</v>
       </c>
-      <c r="AY95">
+      <c r="BA95">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>61</v>
       </c>
@@ -10632,7 +11382,7 @@
         <v>7382950</v>
       </c>
       <c r="Z96">
-        <f>Y96/AW96</f>
+        <f>Y96/AY96</f>
         <v>1476590</v>
       </c>
       <c r="AA96">
@@ -10654,19 +11404,27 @@
         <v>312968</v>
       </c>
       <c r="AV96">
+        <f t="shared" si="2"/>
+        <v>3424890</v>
+      </c>
+      <c r="AW96">
+        <f t="shared" si="3"/>
+        <v>684978</v>
+      </c>
+      <c r="AX96">
         <v>1</v>
       </c>
-      <c r="AW96">
-        <v>5</v>
-      </c>
-      <c r="AX96">
+      <c r="AY96">
+        <v>5</v>
+      </c>
+      <c r="AZ96">
         <v>30</v>
       </c>
-      <c r="AY96">
+      <c r="BA96">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>62</v>
       </c>
@@ -10715,7 +11473,7 @@
         <v>14765900</v>
       </c>
       <c r="Z97">
-        <f>Y97/AW97</f>
+        <f>Y97/AY97</f>
         <v>1476590</v>
       </c>
       <c r="AA97">
@@ -10752,19 +11510,27 @@
         <v>141198</v>
       </c>
       <c r="AV97">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2519280</v>
       </c>
       <c r="AW97">
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>251928</v>
       </c>
       <c r="AX97">
         <v>1</v>
       </c>
       <c r="AY97">
+        <v>10</v>
+      </c>
+      <c r="AZ97">
+        <v>1</v>
+      </c>
+      <c r="BA97">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>63</v>
       </c>
@@ -10813,7 +11579,7 @@
         <v>14765900</v>
       </c>
       <c r="Z98">
-        <f>Y98/AW98</f>
+        <f>Y98/AY98</f>
         <v>1476590</v>
       </c>
       <c r="AA98">
@@ -10850,19 +11616,27 @@
         <v>175552</v>
       </c>
       <c r="AV98">
+        <f t="shared" si="2"/>
+        <v>3385380</v>
+      </c>
+      <c r="AW98">
+        <f t="shared" si="3"/>
+        <v>338538</v>
+      </c>
+      <c r="AX98">
         <v>1</v>
       </c>
-      <c r="AW98">
+      <c r="AY98">
         <v>10</v>
       </c>
-      <c r="AX98">
+      <c r="AZ98">
         <v>10</v>
       </c>
-      <c r="AY98">
+      <c r="BA98">
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>64</v>
       </c>
@@ -10911,7 +11685,7 @@
         <v>14765900</v>
       </c>
       <c r="Z99">
-        <f>Y99/AW99</f>
+        <f>Y99/AY99</f>
         <v>1476590</v>
       </c>
       <c r="AA99">
@@ -10948,19 +11722,27 @@
         <v>244260</v>
       </c>
       <c r="AV99">
+        <f t="shared" si="2"/>
+        <v>5117580</v>
+      </c>
+      <c r="AW99">
+        <f t="shared" si="3"/>
+        <v>511758</v>
+      </c>
+      <c r="AX99">
         <v>1</v>
       </c>
-      <c r="AW99">
+      <c r="AY99">
         <v>10</v>
       </c>
-      <c r="AX99">
+      <c r="AZ99">
         <v>20</v>
       </c>
-      <c r="AY99">
+      <c r="BA99">
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>65</v>
       </c>
@@ -11009,7 +11791,7 @@
         <v>14765900</v>
       </c>
       <c r="Z100">
-        <f>Y100/AW100</f>
+        <f>Y100/AY100</f>
         <v>1476590</v>
       </c>
       <c r="AA100">
@@ -11046,19 +11828,27 @@
         <v>312968</v>
       </c>
       <c r="AV100">
+        <f t="shared" si="2"/>
+        <v>6849780</v>
+      </c>
+      <c r="AW100">
+        <f t="shared" si="3"/>
+        <v>684978</v>
+      </c>
+      <c r="AX100">
         <v>1</v>
       </c>
-      <c r="AW100">
+      <c r="AY100">
         <v>10</v>
       </c>
-      <c r="AX100">
+      <c r="AZ100">
         <v>30</v>
       </c>
-      <c r="AY100">
+      <c r="BA100">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>66</v>
       </c>
@@ -11137,7 +11927,7 @@
         <v>29531800</v>
       </c>
       <c r="Z101">
-        <f>Y101/AW101</f>
+        <f>Y101/AY101</f>
         <v>1476590</v>
       </c>
       <c r="AA101">
@@ -11204,19 +11994,27 @@
         <v>141198</v>
       </c>
       <c r="AV101">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>5038560</v>
       </c>
       <c r="AW101">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>251928</v>
       </c>
       <c r="AX101">
         <v>1</v>
       </c>
       <c r="AY101">
+        <v>20</v>
+      </c>
+      <c r="AZ101">
+        <v>1</v>
+      </c>
+      <c r="BA101">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>67</v>
       </c>
@@ -11295,7 +12093,7 @@
         <v>29531800</v>
       </c>
       <c r="Z102">
-        <f>Y102/AW102</f>
+        <f>Y102/AY102</f>
         <v>1476590</v>
       </c>
       <c r="AA102">
@@ -11362,19 +12160,27 @@
         <v>175552</v>
       </c>
       <c r="AV102">
+        <f t="shared" si="2"/>
+        <v>6770760</v>
+      </c>
+      <c r="AW102">
+        <f t="shared" si="3"/>
+        <v>338538</v>
+      </c>
+      <c r="AX102">
         <v>1</v>
       </c>
-      <c r="AW102">
+      <c r="AY102">
         <v>20</v>
       </c>
-      <c r="AX102">
+      <c r="AZ102">
         <v>10</v>
       </c>
-      <c r="AY102">
+      <c r="BA102">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>68</v>
       </c>
@@ -11453,7 +12259,7 @@
         <v>29531800</v>
       </c>
       <c r="Z103">
-        <f>Y103/AW103</f>
+        <f>Y103/AY103</f>
         <v>1476590</v>
       </c>
       <c r="AA103">
@@ -11520,19 +12326,27 @@
         <v>244260</v>
       </c>
       <c r="AV103">
+        <f t="shared" si="2"/>
+        <v>10235160</v>
+      </c>
+      <c r="AW103">
+        <f t="shared" si="3"/>
+        <v>511758</v>
+      </c>
+      <c r="AX103">
         <v>1</v>
       </c>
-      <c r="AW103">
+      <c r="AY103">
         <v>20</v>
       </c>
-      <c r="AX103">
+      <c r="AZ103">
         <v>20</v>
       </c>
-      <c r="AY103">
+      <c r="BA103">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>69</v>
       </c>
@@ -11611,7 +12425,7 @@
         <v>29531800</v>
       </c>
       <c r="Z104">
-        <f>Y104/AW104</f>
+        <f>Y104/AY104</f>
         <v>1476590</v>
       </c>
       <c r="AA104">
@@ -11678,19 +12492,27 @@
         <v>312968</v>
       </c>
       <c r="AV104">
+        <f t="shared" si="2"/>
+        <v>13699560</v>
+      </c>
+      <c r="AW104">
+        <f t="shared" si="3"/>
+        <v>684978</v>
+      </c>
+      <c r="AX104">
         <v>1</v>
       </c>
-      <c r="AW104">
+      <c r="AY104">
         <v>20</v>
       </c>
-      <c r="AX104">
+      <c r="AZ104">
         <v>30</v>
       </c>
-      <c r="AY104">
+      <c r="BA104">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X105">
         <f>AVERAGE(X93:X104)</f>
         <v>280678</v>
@@ -11699,8 +12521,16 @@
         <f>AVERAGE(Z93:Z104)</f>
         <v>1476590</v>
       </c>
+      <c r="AV105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AW105" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="106" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>48</v>
       </c>
@@ -11734,7 +12564,7 @@
         <v>7154685</v>
       </c>
       <c r="Z106">
-        <f>Y106/AW106</f>
+        <f>Y106/AY106</f>
         <v>1430937</v>
       </c>
       <c r="AA106">
@@ -11756,10 +12586,12 @@
         <v>163265</v>
       </c>
       <c r="AV106">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>859155</v>
       </c>
       <c r="AW106">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>171831</v>
       </c>
       <c r="AX106">
         <v>1</v>
@@ -11767,8 +12599,14 @@
       <c r="AY106">
         <v>5</v>
       </c>
+      <c r="AZ106">
+        <v>1</v>
+      </c>
+      <c r="BA106">
+        <v>5</v>
+      </c>
     </row>
-    <row r="107" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>59</v>
       </c>
@@ -11802,7 +12640,7 @@
         <v>7154685</v>
       </c>
       <c r="Z107">
-        <f>Y107/AW107</f>
+        <f>Y107/AY107</f>
         <v>1430937</v>
       </c>
       <c r="AA107">
@@ -11824,19 +12662,27 @@
         <v>213041</v>
       </c>
       <c r="AV107">
+        <f t="shared" si="2"/>
+        <v>1358505</v>
+      </c>
+      <c r="AW107">
+        <f t="shared" si="3"/>
+        <v>271701</v>
+      </c>
+      <c r="AX107">
         <v>1</v>
       </c>
-      <c r="AW107">
-        <v>5</v>
-      </c>
-      <c r="AX107">
+      <c r="AY107">
+        <v>5</v>
+      </c>
+      <c r="AZ107">
         <v>10</v>
       </c>
-      <c r="AY107">
+      <c r="BA107">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>60</v>
       </c>
@@ -11870,7 +12716,7 @@
         <v>7154685</v>
       </c>
       <c r="Z108">
-        <f>Y108/AW108</f>
+        <f>Y108/AY108</f>
         <v>1430937</v>
       </c>
       <c r="AA108">
@@ -11892,19 +12738,27 @@
         <v>312593</v>
       </c>
       <c r="AV108">
+        <f t="shared" si="2"/>
+        <v>2134565</v>
+      </c>
+      <c r="AW108">
+        <f t="shared" si="3"/>
+        <v>426913</v>
+      </c>
+      <c r="AX108">
         <v>1</v>
       </c>
-      <c r="AW108">
-        <v>5</v>
-      </c>
-      <c r="AX108">
+      <c r="AY108">
+        <v>5</v>
+      </c>
+      <c r="AZ108">
         <v>20</v>
       </c>
-      <c r="AY108">
+      <c r="BA108">
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>61</v>
       </c>
@@ -11938,7 +12792,7 @@
         <v>7154685</v>
       </c>
       <c r="Z109">
-        <f>Y109/AW109</f>
+        <f>Y109/AY109</f>
         <v>1430937</v>
       </c>
       <c r="AA109">
@@ -11960,19 +12814,27 @@
         <v>412145</v>
       </c>
       <c r="AV109">
+        <f t="shared" si="2"/>
+        <v>2910625</v>
+      </c>
+      <c r="AW109">
+        <f t="shared" si="3"/>
+        <v>582125</v>
+      </c>
+      <c r="AX109">
         <v>1</v>
       </c>
-      <c r="AW109">
-        <v>5</v>
-      </c>
-      <c r="AX109">
+      <c r="AY109">
+        <v>5</v>
+      </c>
+      <c r="AZ109">
         <v>30</v>
       </c>
-      <c r="AY109">
+      <c r="BA109">
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>62</v>
       </c>
@@ -12021,7 +12883,7 @@
         <v>14309370</v>
       </c>
       <c r="Z110">
-        <f>Y110/AW110</f>
+        <f>Y110/AY110</f>
         <v>1430937</v>
       </c>
       <c r="AA110">
@@ -12058,19 +12920,27 @@
         <v>163265</v>
       </c>
       <c r="AV110">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1675480</v>
       </c>
       <c r="AW110">
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>167548</v>
       </c>
       <c r="AX110">
         <v>1</v>
       </c>
       <c r="AY110">
+        <v>10</v>
+      </c>
+      <c r="AZ110">
+        <v>1</v>
+      </c>
+      <c r="BA110">
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>63</v>
       </c>
@@ -12119,7 +12989,7 @@
         <v>14309370</v>
       </c>
       <c r="Z111">
-        <f>Y111/AW111</f>
+        <f>Y111/AY111</f>
         <v>1430937</v>
       </c>
       <c r="AA111">
@@ -12156,19 +13026,27 @@
         <v>213041</v>
       </c>
       <c r="AV111">
+        <f t="shared" si="2"/>
+        <v>2423710</v>
+      </c>
+      <c r="AW111">
+        <f t="shared" si="3"/>
+        <v>242371</v>
+      </c>
+      <c r="AX111">
         <v>1</v>
       </c>
-      <c r="AW111">
+      <c r="AY111">
         <v>10</v>
       </c>
-      <c r="AX111">
+      <c r="AZ111">
         <v>10</v>
       </c>
-      <c r="AY111">
+      <c r="BA111">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>64</v>
       </c>
@@ -12217,7 +13095,7 @@
         <v>14309370</v>
       </c>
       <c r="Z112">
-        <f>Y112/AW112</f>
+        <f>Y112/AY112</f>
         <v>1430937</v>
       </c>
       <c r="AA112">
@@ -12254,19 +13132,27 @@
         <v>312593</v>
       </c>
       <c r="AV112">
+        <f t="shared" si="2"/>
+        <v>3697530</v>
+      </c>
+      <c r="AW112">
+        <f t="shared" si="3"/>
+        <v>369753</v>
+      </c>
+      <c r="AX112">
         <v>1</v>
       </c>
-      <c r="AW112">
+      <c r="AY112">
         <v>10</v>
       </c>
-      <c r="AX112">
+      <c r="AZ112">
         <v>20</v>
       </c>
-      <c r="AY112">
+      <c r="BA112">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>65</v>
       </c>
@@ -12315,7 +13201,7 @@
         <v>14309370</v>
       </c>
       <c r="Z113">
-        <f>Y113/AW113</f>
+        <f>Y113/AY113</f>
         <v>1430937</v>
       </c>
       <c r="AA113">
@@ -12352,19 +13238,27 @@
         <v>412145</v>
       </c>
       <c r="AV113">
+        <f t="shared" si="2"/>
+        <v>4971350</v>
+      </c>
+      <c r="AW113">
+        <f t="shared" si="3"/>
+        <v>497135</v>
+      </c>
+      <c r="AX113">
         <v>1</v>
       </c>
-      <c r="AW113">
+      <c r="AY113">
         <v>10</v>
       </c>
-      <c r="AX113">
+      <c r="AZ113">
         <v>30</v>
       </c>
-      <c r="AY113">
+      <c r="BA113">
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>66</v>
       </c>
@@ -12443,7 +13337,7 @@
         <v>28618740</v>
       </c>
       <c r="Z114">
-        <f>Y114/AW114</f>
+        <f>Y114/AY114</f>
         <v>1430937</v>
       </c>
       <c r="AA114">
@@ -12510,19 +13404,27 @@
         <v>163265</v>
       </c>
       <c r="AV114">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3308130</v>
       </c>
       <c r="AW114">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>165406.5</v>
       </c>
       <c r="AX114">
         <v>1</v>
       </c>
       <c r="AY114">
+        <v>20</v>
+      </c>
+      <c r="AZ114">
+        <v>1</v>
+      </c>
+      <c r="BA114">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>67</v>
       </c>
@@ -12601,7 +13503,7 @@
         <v>28617460</v>
       </c>
       <c r="Z115">
-        <f>Y115/AW115</f>
+        <f>Y115/AY115</f>
         <v>1430873</v>
       </c>
       <c r="AA115">
@@ -12668,19 +13570,27 @@
         <v>213041</v>
       </c>
       <c r="AV115">
+        <f t="shared" si="2"/>
+        <v>4554120</v>
+      </c>
+      <c r="AW115">
+        <f t="shared" si="3"/>
+        <v>227706</v>
+      </c>
+      <c r="AX115">
         <v>1</v>
       </c>
-      <c r="AW115">
+      <c r="AY115">
         <v>20</v>
       </c>
-      <c r="AX115">
+      <c r="AZ115">
         <v>10</v>
       </c>
-      <c r="AY115">
+      <c r="BA115">
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>68</v>
       </c>
@@ -12759,7 +13669,7 @@
         <v>28618740</v>
       </c>
       <c r="Z116">
-        <f>Y116/AW116</f>
+        <f>Y116/AY116</f>
         <v>1430937</v>
       </c>
       <c r="AA116">
@@ -12826,19 +13736,27 @@
         <v>312593</v>
       </c>
       <c r="AV116">
+        <f t="shared" si="2"/>
+        <v>6823460</v>
+      </c>
+      <c r="AW116">
+        <f t="shared" si="3"/>
+        <v>341173</v>
+      </c>
+      <c r="AX116">
         <v>1</v>
       </c>
-      <c r="AW116">
+      <c r="AY116">
         <v>20</v>
       </c>
-      <c r="AX116">
+      <c r="AZ116">
         <v>20</v>
       </c>
-      <c r="AY116">
+      <c r="BA116">
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>69</v>
       </c>
@@ -12917,7 +13835,7 @@
         <v>28618740</v>
       </c>
       <c r="Z117">
-        <f>Y117/AW117</f>
+        <f>Y117/AY117</f>
         <v>1430937</v>
       </c>
       <c r="AA117">
@@ -12984,19 +13902,27 @@
         <v>412145</v>
       </c>
       <c r="AV117">
+        <f t="shared" si="2"/>
+        <v>9092800</v>
+      </c>
+      <c r="AW117">
+        <f t="shared" si="3"/>
+        <v>454640</v>
+      </c>
+      <c r="AX117">
         <v>1</v>
       </c>
-      <c r="AW117">
+      <c r="AY117">
         <v>20</v>
       </c>
-      <c r="AX117">
+      <c r="AZ117">
         <v>30</v>
       </c>
-      <c r="AY117">
+      <c r="BA117">
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X118">
         <f>AVERAGE(X106:X117)</f>
         <v>276262</v>
@@ -13005,8 +13931,16 @@
         <f>AVERAGE(Z106:Z117)</f>
         <v>1430931.6666666667</v>
       </c>
+      <c r="AV118">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AW118" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="119" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>48</v>
       </c>
@@ -13040,7 +13974,7 @@
         <v>7028310</v>
       </c>
       <c r="Z119">
-        <f>Y119/AW119</f>
+        <f>Y119/AY119</f>
         <v>1405662</v>
       </c>
       <c r="AA119">
@@ -13062,10 +13996,12 @@
         <v>166053</v>
       </c>
       <c r="AV119">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>873095</v>
       </c>
       <c r="AW119">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>174619</v>
       </c>
       <c r="AX119">
         <v>1</v>
@@ -13073,8 +14009,14 @@
       <c r="AY119">
         <v>5</v>
       </c>
+      <c r="AZ119">
+        <v>1</v>
+      </c>
+      <c r="BA119">
+        <v>5</v>
+      </c>
     </row>
-    <row r="120" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>59</v>
       </c>
@@ -13108,7 +14050,7 @@
         <v>7028310</v>
       </c>
       <c r="Z120">
-        <f>Y120/AW120</f>
+        <f>Y120/AY120</f>
         <v>1405662</v>
       </c>
       <c r="AA120">
@@ -13130,19 +14072,27 @@
         <v>217223</v>
       </c>
       <c r="AV120">
+        <f t="shared" si="2"/>
+        <v>1379415</v>
+      </c>
+      <c r="AW120">
+        <f t="shared" si="3"/>
+        <v>275883</v>
+      </c>
+      <c r="AX120">
         <v>1</v>
       </c>
-      <c r="AW120">
-        <v>5</v>
-      </c>
-      <c r="AX120">
+      <c r="AY120">
+        <v>5</v>
+      </c>
+      <c r="AZ120">
         <v>10</v>
       </c>
-      <c r="AY120">
+      <c r="BA120">
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>60</v>
       </c>
@@ -13176,7 +14126,7 @@
         <v>7028310</v>
       </c>
       <c r="Z121">
-        <f>Y121/AW121</f>
+        <f>Y121/AY121</f>
         <v>1405662</v>
       </c>
       <c r="AA121">
@@ -13198,19 +14148,27 @@
         <v>319563</v>
       </c>
       <c r="AV121">
+        <f t="shared" si="2"/>
+        <v>2169415</v>
+      </c>
+      <c r="AW121">
+        <f t="shared" si="3"/>
+        <v>433883</v>
+      </c>
+      <c r="AX121">
         <v>1</v>
       </c>
-      <c r="AW121">
-        <v>5</v>
-      </c>
-      <c r="AX121">
+      <c r="AY121">
+        <v>5</v>
+      </c>
+      <c r="AZ121">
         <v>20</v>
       </c>
-      <c r="AY121">
+      <c r="BA121">
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>61</v>
       </c>
@@ -13244,7 +14202,7 @@
         <v>7028310</v>
       </c>
       <c r="Z122">
-        <f>Y122/AW122</f>
+        <f>Y122/AY122</f>
         <v>1405662</v>
       </c>
       <c r="AA122">
@@ -13266,19 +14224,27 @@
         <v>421903</v>
       </c>
       <c r="AV122">
+        <f t="shared" si="2"/>
+        <v>2959415</v>
+      </c>
+      <c r="AW122">
+        <f t="shared" si="3"/>
+        <v>591883</v>
+      </c>
+      <c r="AX122">
         <v>1</v>
       </c>
-      <c r="AW122">
-        <v>5</v>
-      </c>
-      <c r="AX122">
+      <c r="AY122">
+        <v>5</v>
+      </c>
+      <c r="AZ122">
         <v>30</v>
       </c>
-      <c r="AY122">
+      <c r="BA122">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>62</v>
       </c>
@@ -13327,7 +14293,7 @@
         <v>14056620</v>
       </c>
       <c r="Z123">
-        <f>Y123/AW123</f>
+        <f>Y123/AY123</f>
         <v>1405662</v>
       </c>
       <c r="AA123">
@@ -13364,19 +14330,27 @@
         <v>166053</v>
       </c>
       <c r="AV123">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1703360</v>
       </c>
       <c r="AW123">
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>170336</v>
       </c>
       <c r="AX123">
         <v>1</v>
       </c>
       <c r="AY123">
+        <v>10</v>
+      </c>
+      <c r="AZ123">
+        <v>1</v>
+      </c>
+      <c r="BA123">
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>63</v>
       </c>
@@ -13425,7 +14399,7 @@
         <v>14056620</v>
       </c>
       <c r="Z124">
-        <f>Y124/AW124</f>
+        <f>Y124/AY124</f>
         <v>1405662</v>
       </c>
       <c r="AA124">
@@ -13462,19 +14436,27 @@
         <v>217223</v>
       </c>
       <c r="AV124">
+        <f t="shared" si="2"/>
+        <v>2465530</v>
+      </c>
+      <c r="AW124">
+        <f t="shared" si="3"/>
+        <v>246553</v>
+      </c>
+      <c r="AX124">
         <v>1</v>
       </c>
-      <c r="AW124">
+      <c r="AY124">
         <v>10</v>
       </c>
-      <c r="AX124">
+      <c r="AZ124">
         <v>10</v>
       </c>
-      <c r="AY124">
+      <c r="BA124">
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>64</v>
       </c>
@@ -13523,7 +14505,7 @@
         <v>14056620</v>
       </c>
       <c r="Z125">
-        <f>Y125/AW125</f>
+        <f>Y125/AY125</f>
         <v>1405662</v>
       </c>
       <c r="AA125">
@@ -13560,19 +14542,27 @@
         <v>319563</v>
       </c>
       <c r="AV125">
+        <f t="shared" si="2"/>
+        <v>3767230</v>
+      </c>
+      <c r="AW125">
+        <f t="shared" si="3"/>
+        <v>376723</v>
+      </c>
+      <c r="AX125">
         <v>1</v>
       </c>
-      <c r="AW125">
+      <c r="AY125">
         <v>10</v>
       </c>
-      <c r="AX125">
+      <c r="AZ125">
         <v>20</v>
       </c>
-      <c r="AY125">
+      <c r="BA125">
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>65</v>
       </c>
@@ -13621,7 +14611,7 @@
         <v>14056620</v>
       </c>
       <c r="Z126">
-        <f>Y126/AW126</f>
+        <f>Y126/AY126</f>
         <v>1405662</v>
       </c>
       <c r="AA126">
@@ -13658,19 +14648,27 @@
         <v>421903</v>
       </c>
       <c r="AV126">
+        <f t="shared" si="2"/>
+        <v>5068930</v>
+      </c>
+      <c r="AW126">
+        <f t="shared" si="3"/>
+        <v>506893</v>
+      </c>
+      <c r="AX126">
         <v>1</v>
       </c>
-      <c r="AW126">
+      <c r="AY126">
         <v>10</v>
       </c>
-      <c r="AX126">
+      <c r="AZ126">
         <v>30</v>
       </c>
-      <c r="AY126">
+      <c r="BA126">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>66</v>
       </c>
@@ -13749,7 +14747,7 @@
         <v>28113240</v>
       </c>
       <c r="Z127">
-        <f>Y127/AW127</f>
+        <f>Y127/AY127</f>
         <v>1405662</v>
       </c>
       <c r="AA127">
@@ -13816,19 +14814,27 @@
         <v>166053</v>
       </c>
       <c r="AV127">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3363890</v>
       </c>
       <c r="AW127">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>168194.5</v>
       </c>
       <c r="AX127">
         <v>1</v>
       </c>
       <c r="AY127">
+        <v>20</v>
+      </c>
+      <c r="AZ127">
+        <v>1</v>
+      </c>
+      <c r="BA127">
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>67</v>
       </c>
@@ -13907,7 +14913,7 @@
         <v>28113240</v>
       </c>
       <c r="Z128">
-        <f>Y128/AW128</f>
+        <f>Y128/AY128</f>
         <v>1405662</v>
       </c>
       <c r="AA128">
@@ -13974,19 +14980,27 @@
         <v>217223</v>
       </c>
       <c r="AV128">
+        <f t="shared" si="2"/>
+        <v>4637760</v>
+      </c>
+      <c r="AW128">
+        <f t="shared" si="3"/>
+        <v>231888</v>
+      </c>
+      <c r="AX128">
         <v>1</v>
       </c>
-      <c r="AW128">
+      <c r="AY128">
         <v>20</v>
       </c>
-      <c r="AX128">
+      <c r="AZ128">
         <v>10</v>
       </c>
-      <c r="AY128">
+      <c r="BA128">
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>68</v>
       </c>
@@ -14065,7 +15079,7 @@
         <v>28113240</v>
       </c>
       <c r="Z129">
-        <f>Y129/AW129</f>
+        <f>Y129/AY129</f>
         <v>1405662</v>
       </c>
       <c r="AA129">
@@ -14132,19 +15146,27 @@
         <v>319563</v>
       </c>
       <c r="AV129">
+        <f t="shared" si="2"/>
+        <v>6962860</v>
+      </c>
+      <c r="AW129">
+        <f t="shared" si="3"/>
+        <v>348143</v>
+      </c>
+      <c r="AX129">
         <v>1</v>
       </c>
-      <c r="AW129">
+      <c r="AY129">
         <v>20</v>
       </c>
-      <c r="AX129">
+      <c r="AZ129">
         <v>20</v>
       </c>
-      <c r="AY129">
+      <c r="BA129">
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>69</v>
       </c>
@@ -14223,7 +15245,7 @@
         <v>28113240</v>
       </c>
       <c r="Z130">
-        <f>Y130/AW130</f>
+        <f>Y130/AY130</f>
         <v>1405662</v>
       </c>
       <c r="AA130">
@@ -14290,19 +15312,27 @@
         <v>421903</v>
       </c>
       <c r="AV130">
+        <f t="shared" si="2"/>
+        <v>9287960</v>
+      </c>
+      <c r="AW130">
+        <f t="shared" si="3"/>
+        <v>464398</v>
+      </c>
+      <c r="AX130">
         <v>1</v>
       </c>
-      <c r="AW130">
+      <c r="AY130">
         <v>20</v>
       </c>
-      <c r="AX130">
+      <c r="AZ130">
         <v>30</v>
       </c>
-      <c r="AY130">
+      <c r="BA130">
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X131">
         <f>AVERAGE(X119:X130)</f>
         <v>408130</v>
@@ -14313,7 +15343,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AY130">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BA130">
     <sortCondition ref="B2:B130"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
